--- a/data/long_razon/P23_7-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_7-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-29,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-51,4; -2,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 97,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,78; 31,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,41; 79,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,69; 3,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 70,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-25,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-24,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 75,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,67; 3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 77,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,25; 22,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,66; 24,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-11,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-37,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-56,77; 95,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 173,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-70,61; 11,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 176,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,0; 36,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,88; 128,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,52; 18,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,13; 38,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,43; 3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,93; 62,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 2,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 39,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_7-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_7-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2843686352567812</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.2088886275575357</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.07754001503342178</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.02495054314350565</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.3929786310470836</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1041145314174036</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1415543400467498</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.3041914598505222</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.09185859056075076</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.5241985375578185</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.1550214407987034</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2736878207106949</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.2316839435145184</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.09519556526308449</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1797818530146462</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3236540761429485</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.07006468317530358</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1120480041050986</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.02939862625294166</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.8678079087768381</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.5756763559549591</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3713162224726593</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.8251326650135449</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5348199498941185</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.08440896575247114</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.6335461593817332</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.387513563444884</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.2522664471697272</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.2692256953735294</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5937778381217272</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.2272208045573637</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.3124513885486909</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1504798209573486</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.02706614397190995</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.03251240129076319</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.3640217318014444</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.1744229314804635</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5061399473522242</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.06765462805495903</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4683220482459491</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.05933842872462095</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.1961944142385585</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2404124783964532</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2604496895277353</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.05837631472585172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.9020093430672995</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.04040937121051403</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.355613424719733</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.05041116897706312</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.7644568379601239</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6507078601841241</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2721536657717664</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2226710490534498</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.7884841428533063</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.1411269044251517</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.407490349702942</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.2107804109873051</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.4337796812066069</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.3693666329448862</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.25388403552275</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.2845266880514134</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.3915548838648885</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.2276252471925875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.5860543545272435</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4167180092296917</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5312865509991189</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.7418962347904826</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.300447172729551</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3787159394467859</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.5630582044882283</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.1763364672720533</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.3638589955187124</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.168649701263317</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.772200625064834</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.584668690794768</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.05499022378897393</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.674560776003895</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.565850104247078</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.240525004372</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.355382541425917</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>1.405482300946341</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.08654176816889661</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.01091272713142046</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2904575967436871</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1490338260967835</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.3602797804498462</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1374124954847724</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1185471931067421</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.1713994482527521</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.2122746522330594</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3062833264238564</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2106035606719146</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.01612788696488134</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3202237258906166</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.130278501982062</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.09489305731293664</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2398185631108145</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.01467258625359596</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.0279468242169199</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.1684082590488744</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3273915281719366</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.7047122698146298</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.04705784702110045</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.6490121342927377</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4241987308244698</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.03679134555236769</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.3753127675175543</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.4468731083482189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
